--- a/idis/expdata/10042.xlsx
+++ b/idis/expdata/10042.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD62AD-BE56-C148-A25E-DE2EC26D7B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA1D27C-375A-A041-8392-1F50FF382CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>F2d/F2h</t>
   </si>
   <si>
-    <t>%syst_u</t>
-  </si>
-  <si>
     <t>%syst_c1</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>%norm_c</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>norm_c</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>syst_c7</t>
+  </si>
+  <si>
+    <t>err_u</t>
+  </si>
+  <si>
+    <t>%err_u</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:AB710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,58 +551,58 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>0</v>
@@ -61556,7 +61556,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="O643" s="1">
-        <f t="shared" ref="O643:O706" si="93">N643*G643</f>
+        <f t="shared" ref="O643:O677" si="93">N643*G643</f>
         <v>1.0999799999999999E-4</v>
       </c>
       <c r="P643" s="1">
